--- a/Code/Results/Cases/Case_5_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_150/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.466969820089787</v>
+        <v>1.42612573704929</v>
       </c>
       <c r="C2">
-        <v>0.499310969494303</v>
+        <v>0.2716980152002861</v>
       </c>
       <c r="D2">
-        <v>0.04764942944779449</v>
+        <v>0.02815277586734055</v>
       </c>
       <c r="E2">
-        <v>0.03702058140479458</v>
+        <v>0.09735005301324939</v>
       </c>
       <c r="F2">
-        <v>0.5174241791118277</v>
+        <v>0.7404525498734955</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3263570302504348</v>
+        <v>0.2186133324869814</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.466546078335853</v>
+        <v>2.54532475422431</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.012298965723119</v>
+        <v>1.287646044421081</v>
       </c>
       <c r="C3">
-        <v>0.4546130535558746</v>
+        <v>0.2566188330006298</v>
       </c>
       <c r="D3">
-        <v>0.04341388752895625</v>
+        <v>0.02670168647996718</v>
       </c>
       <c r="E3">
-        <v>0.03778720887610909</v>
+        <v>0.09856702563687314</v>
       </c>
       <c r="F3">
-        <v>0.4821470636321337</v>
+        <v>0.7407862203639866</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.285959191986592</v>
+        <v>0.2082890078714001</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.401372605542377</v>
+        <v>2.562567931480373</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.73393218226056</v>
+        <v>1.202640181682398</v>
       </c>
       <c r="C4">
-        <v>0.4272211419684311</v>
+        <v>0.2473352152663608</v>
       </c>
       <c r="D4">
-        <v>0.04081776959075256</v>
+        <v>0.02580839362537546</v>
       </c>
       <c r="E4">
-        <v>0.03837057258371601</v>
+        <v>0.09937666743665829</v>
       </c>
       <c r="F4">
-        <v>0.4620574009641629</v>
+        <v>0.7416464198107704</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2614307034019134</v>
+        <v>0.2020494733446441</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.366643616930389</v>
+        <v>2.575409500003616</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.620645312709428</v>
+        <v>1.168006751467431</v>
       </c>
       <c r="C5">
-        <v>0.4160681560215664</v>
+        <v>0.2435460889222441</v>
       </c>
       <c r="D5">
-        <v>0.03976059106107499</v>
+        <v>0.02544381431743403</v>
       </c>
       <c r="E5">
-        <v>0.03863550449299957</v>
+        <v>0.09972228918227444</v>
       </c>
       <c r="F5">
-        <v>0.4542398427989411</v>
+        <v>0.7421613517768151</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2514968424037249</v>
+        <v>0.1995319262777286</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.353739008975481</v>
+        <v>2.581207977441608</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.601841711303507</v>
+        <v>1.162256382369662</v>
       </c>
       <c r="C6">
-        <v>0.4142166752649246</v>
+        <v>0.2429165551417043</v>
       </c>
       <c r="D6">
-        <v>0.03958508294113017</v>
+        <v>0.02538324349059451</v>
       </c>
       <c r="E6">
-        <v>0.03868110776383737</v>
+        <v>0.09978062655592979</v>
       </c>
       <c r="F6">
-        <v>0.4529633109030584</v>
+        <v>0.7422567732847014</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2498508427024291</v>
+        <v>0.1991154080681099</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.3516692598985</v>
+        <v>2.582204919958031</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.732403815391365</v>
+        <v>1.202173071766197</v>
       </c>
       <c r="C7">
-        <v>0.4270706955179833</v>
+        <v>0.2472841375883092</v>
       </c>
       <c r="D7">
-        <v>0.04080350950549416</v>
+        <v>0.02580347899241531</v>
       </c>
       <c r="E7">
-        <v>0.03837403682872242</v>
+        <v>0.09938126511149292</v>
       </c>
       <c r="F7">
-        <v>0.4619505090670017</v>
+        <v>0.7416526992634473</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2612964918963883</v>
+        <v>0.202015419060416</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.366464633779515</v>
+        <v>2.57548541274511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.310000075663822</v>
+        <v>1.378374569436744</v>
       </c>
       <c r="C8">
-        <v>0.48388575332865</v>
+        <v>0.2665040599692077</v>
       </c>
       <c r="D8">
-        <v>0.04618783775559621</v>
+        <v>0.02765293741340002</v>
       </c>
       <c r="E8">
-        <v>0.03726084106525285</v>
+        <v>0.09775670556897786</v>
       </c>
       <c r="F8">
-        <v>0.5049186548521902</v>
+        <v>0.7404313483539582</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3123657945380103</v>
+        <v>0.2150328553357923</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.442926015501087</v>
+        <v>2.550801499978348</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.451623634090708</v>
+        <v>1.724012180241402</v>
       </c>
       <c r="C9">
-        <v>0.5959134569239382</v>
+        <v>0.3039854258961441</v>
       </c>
       <c r="D9">
-        <v>0.05680164221273998</v>
+        <v>0.03126030033720184</v>
       </c>
       <c r="E9">
-        <v>0.0360252778448249</v>
+        <v>0.09506657982688083</v>
       </c>
       <c r="F9">
-        <v>0.6028844618773519</v>
+        <v>0.7432548820246581</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4150782516098559</v>
+        <v>0.2413496595601003</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.638767711956575</v>
+        <v>2.520347592924026</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.299810463813913</v>
+        <v>1.977961545731205</v>
       </c>
       <c r="C10">
-        <v>0.6788985258148728</v>
+        <v>0.3313838256891302</v>
       </c>
       <c r="D10">
-        <v>0.06466362970431305</v>
+        <v>0.03389769180461144</v>
       </c>
       <c r="E10">
-        <v>0.03577453203608982</v>
+        <v>0.09339282582802255</v>
       </c>
       <c r="F10">
-        <v>0.6850732750371975</v>
+        <v>0.748538571820859</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4926749428551744</v>
+        <v>0.2611670464070528</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.816531400697272</v>
+        <v>2.509009849006873</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.688696895780481</v>
+        <v>2.09348190978568</v>
       </c>
       <c r="C11">
-        <v>0.7168734398800325</v>
+        <v>0.3438155814336028</v>
       </c>
       <c r="D11">
-        <v>0.06826180863703257</v>
+        <v>0.03509449064628711</v>
       </c>
       <c r="E11">
-        <v>0.03582225326488953</v>
+        <v>0.09269723182207201</v>
       </c>
       <c r="F11">
-        <v>0.7251308949615662</v>
+        <v>0.7516451862771305</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5285778040562121</v>
+        <v>0.2702876302099781</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.906187581069133</v>
+        <v>2.506268740626155</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.836483270028111</v>
+        <v>2.137224739684314</v>
       </c>
       <c r="C12">
-        <v>0.7312926469807621</v>
+        <v>0.348518330973377</v>
       </c>
       <c r="D12">
-        <v>0.06962816740908551</v>
+        <v>0.03554723832883866</v>
       </c>
       <c r="E12">
-        <v>0.03586532975680079</v>
+        <v>0.09244330170099069</v>
       </c>
       <c r="F12">
-        <v>0.7407245408287508</v>
+        <v>0.7529231317853515</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5422726446231678</v>
+        <v>0.2737565190597593</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.94153280800009</v>
+        <v>2.5055798245331</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.804630092148557</v>
+        <v>2.127804067047634</v>
       </c>
       <c r="C13">
-        <v>0.728185368868111</v>
+        <v>0.3475057317340315</v>
       </c>
       <c r="D13">
-        <v>0.06933371666382726</v>
+        <v>0.03544975164790998</v>
       </c>
       <c r="E13">
-        <v>0.03585491109822847</v>
+        <v>0.09249756842254797</v>
       </c>
       <c r="F13">
-        <v>0.7373465942457784</v>
+        <v>0.7526433804024322</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5393185945347341</v>
+        <v>0.273008760134303</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.933856369419573</v>
+        <v>2.505712644077278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.700844356773814</v>
+        <v>2.097080713932939</v>
       </c>
       <c r="C14">
-        <v>0.7180588962404215</v>
+        <v>0.3442025790894832</v>
       </c>
       <c r="D14">
-        <v>0.06837413934116654</v>
+        <v>0.0351317477288049</v>
       </c>
       <c r="E14">
-        <v>0.0358252855703487</v>
+        <v>0.09267615084272052</v>
       </c>
       <c r="F14">
-        <v>0.7264050357970717</v>
+        <v>0.7517482861240268</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5297024237610231</v>
+        <v>0.2705727150445796</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.909066722084361</v>
+        <v>2.506205057842948</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.637343462266188</v>
+        <v>2.078261428251494</v>
       </c>
       <c r="C15">
-        <v>0.7118614169729369</v>
+        <v>0.3421786575941042</v>
       </c>
       <c r="D15">
-        <v>0.0677868877269816</v>
+        <v>0.03493690119277915</v>
       </c>
       <c r="E15">
-        <v>0.03581044960689361</v>
+        <v>0.09278677221841392</v>
       </c>
       <c r="F15">
-        <v>0.7197595940679946</v>
+        <v>0.7512132513722634</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5238255472158215</v>
+        <v>0.2690825347070245</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.894067995954259</v>
+        <v>2.506552183530147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.274464218721675</v>
+        <v>1.970411808117717</v>
       </c>
       <c r="C16">
-        <v>0.6764218483525042</v>
+        <v>0.3305707135021123</v>
       </c>
       <c r="D16">
-        <v>0.0644289741259314</v>
+        <v>0.03381941615430861</v>
       </c>
       <c r="E16">
-        <v>0.03577481454563447</v>
+        <v>0.0934396098567909</v>
       </c>
       <c r="F16">
-        <v>0.6825125443529885</v>
+        <v>0.74834973200565</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4903417900408442</v>
+        <v>0.2605731139490075</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.810859933636749</v>
+        <v>2.50923774917436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.052687553823091</v>
+        <v>1.904247587643169</v>
       </c>
       <c r="C17">
-        <v>0.6547428720603818</v>
+        <v>0.3234412288701378</v>
       </c>
       <c r="D17">
-        <v>0.06237503034408576</v>
+        <v>0.03313309620898508</v>
       </c>
       <c r="E17">
-        <v>0.03579558633662572</v>
+        <v>0.09385696850501368</v>
       </c>
       <c r="F17">
-        <v>0.6603743904931747</v>
+        <v>0.7467734355434317</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4699637047709757</v>
+        <v>0.255379854243742</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.762155221314941</v>
+        <v>2.511505312961702</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.925408214634047</v>
+        <v>1.866191555075602</v>
       </c>
       <c r="C18">
-        <v>0.6422944046416319</v>
+        <v>0.3193375514979948</v>
       </c>
       <c r="D18">
-        <v>0.06119565579072628</v>
+        <v>0.03273806580278915</v>
       </c>
       <c r="E18">
-        <v>0.0358226497172307</v>
+        <v>0.09410321523863097</v>
       </c>
       <c r="F18">
-        <v>0.6478897382791189</v>
+        <v>0.7459329384070799</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4582987930137108</v>
+        <v>0.2524027673108407</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.734960538378118</v>
+        <v>2.513036911941725</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.882359333888473</v>
+        <v>1.853306472577458</v>
       </c>
       <c r="C19">
-        <v>0.638082931624723</v>
+        <v>0.3179476130713681</v>
       </c>
       <c r="D19">
-        <v>0.06079666358616009</v>
+        <v>0.03260426851982601</v>
       </c>
       <c r="E19">
-        <v>0.03583435830514681</v>
+        <v>0.0941876534057382</v>
       </c>
       <c r="F19">
-        <v>0.6437041632844682</v>
+        <v>0.7456597078140561</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4543585161814718</v>
+        <v>0.2513964855611164</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.725889755402847</v>
+        <v>2.5135944850675</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.076266404334319</v>
+        <v>1.911290908205331</v>
       </c>
       <c r="C20">
-        <v>0.6570484469658879</v>
+        <v>0.3242004859288556</v>
       </c>
       <c r="D20">
-        <v>0.06259346449229497</v>
+        <v>0.03320618504464079</v>
       </c>
       <c r="E20">
-        <v>0.03579179852908787</v>
+        <v>0.09381189890589958</v>
       </c>
       <c r="F20">
-        <v>0.662705017892705</v>
+        <v>0.7469343858267479</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4721271021154365</v>
+        <v>0.2559316574051422</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.767254251279923</v>
+        <v>2.511240384834366</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.731313810113818</v>
+        <v>2.10610498263992</v>
       </c>
       <c r="C21">
-        <v>0.7210321741341659</v>
+        <v>0.3451729300581121</v>
       </c>
       <c r="D21">
-        <v>0.06865588135607226</v>
+        <v>0.03522516573176659</v>
       </c>
       <c r="E21">
-        <v>0.03583329408662195</v>
+        <v>0.09262343956701713</v>
       </c>
       <c r="F21">
-        <v>0.7296069679466513</v>
+        <v>0.7520084377834593</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5325241296603735</v>
+        <v>0.2712878305882498</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.916309104744812</v>
+        <v>2.506050937310818</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.162522315327124</v>
+        <v>2.233413424288301</v>
       </c>
       <c r="C22">
-        <v>0.7630796999949609</v>
+        <v>0.3588510172441488</v>
       </c>
       <c r="D22">
-        <v>0.07264057797332413</v>
+        <v>0.03654202706866272</v>
       </c>
       <c r="E22">
-        <v>0.03600707751692767</v>
+        <v>0.09190195369455267</v>
       </c>
       <c r="F22">
-        <v>0.7758282337592846</v>
+        <v>0.7559166693299488</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5725818778887088</v>
+        <v>0.281412092657348</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.021921402771568</v>
+        <v>2.504694788128177</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.93206432400973</v>
+        <v>2.165468388404463</v>
       </c>
       <c r="C23">
-        <v>0.7406146981488462</v>
+        <v>0.3515534802882314</v>
       </c>
       <c r="D23">
-        <v>0.07051156182763663</v>
+        <v>0.03583944580751108</v>
       </c>
       <c r="E23">
-        <v>0.03590029343042112</v>
+        <v>0.09228196525756438</v>
       </c>
       <c r="F23">
-        <v>0.7509161825290818</v>
+        <v>0.7537764548151955</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5511444127563294</v>
+        <v>0.2760005394590337</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.964758101215722</v>
+        <v>2.50523182063381</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.065605717774929</v>
+        <v>1.908106676857642</v>
       </c>
       <c r="C24">
-        <v>0.6560060501218743</v>
+        <v>0.3238572408721723</v>
       </c>
       <c r="D24">
-        <v>0.06249470590116601</v>
+        <v>0.0331731429993809</v>
       </c>
       <c r="E24">
-        <v>0.03579346402702122</v>
+        <v>0.09383225524341832</v>
       </c>
       <c r="F24">
-        <v>0.6616505878119057</v>
+        <v>0.7468614154691267</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4711488731151974</v>
+        <v>0.2556821604460282</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.764946478087637</v>
+        <v>2.511359448910014</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.14143451571033</v>
+        <v>1.630502460954688</v>
       </c>
       <c r="C25">
-        <v>0.5655115524905625</v>
+        <v>0.293869323278642</v>
       </c>
       <c r="D25">
-        <v>0.05392146552900101</v>
+        <v>0.03028660745813028</v>
       </c>
       <c r="E25">
-        <v>0.03625024326309756</v>
+        <v>0.09574121442095063</v>
       </c>
       <c r="F25">
-        <v>0.5747314318317578</v>
+        <v>0.7419294698460135</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3869609925294668</v>
+        <v>0.2341456260844836</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.580291686511544</v>
+        <v>2.526654732982166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_150/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.42612573704929</v>
+        <v>3.466969820090014</v>
       </c>
       <c r="C2">
-        <v>0.2716980152002861</v>
+        <v>0.4993109694943314</v>
       </c>
       <c r="D2">
-        <v>0.02815277586734055</v>
+        <v>0.04764942944781581</v>
       </c>
       <c r="E2">
-        <v>0.09735005301324939</v>
+        <v>0.0370205814047857</v>
       </c>
       <c r="F2">
-        <v>0.7404525498734955</v>
+        <v>0.5174241791117993</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2186133324869814</v>
+        <v>0.3263570302503354</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.54532475422431</v>
+        <v>1.466546078335767</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.287646044421081</v>
+        <v>3.012298965723119</v>
       </c>
       <c r="C3">
-        <v>0.2566188330006298</v>
+        <v>0.4546130535558461</v>
       </c>
       <c r="D3">
-        <v>0.02670168647996718</v>
+        <v>0.0434138875288923</v>
       </c>
       <c r="E3">
-        <v>0.09856702563687314</v>
+        <v>0.0377872088761162</v>
       </c>
       <c r="F3">
-        <v>0.7407862203639866</v>
+        <v>0.4821470636321337</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2082890078714001</v>
+        <v>0.2859591919865068</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.562567931480373</v>
+        <v>1.401372605542377</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.202640181682398</v>
+        <v>2.733932182260901</v>
       </c>
       <c r="C4">
-        <v>0.2473352152663608</v>
+        <v>0.4272211419687721</v>
       </c>
       <c r="D4">
-        <v>0.02580839362537546</v>
+        <v>0.0408177695908023</v>
       </c>
       <c r="E4">
-        <v>0.09937666743665829</v>
+        <v>0.03837057258368937</v>
       </c>
       <c r="F4">
-        <v>0.7416464198107704</v>
+        <v>0.4620574009641629</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2020494733446441</v>
+        <v>0.2614307034017855</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.575409500003616</v>
+        <v>1.366643616930418</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.168006751467431</v>
+        <v>2.620645312709428</v>
       </c>
       <c r="C5">
-        <v>0.2435460889222441</v>
+        <v>0.4160681560218791</v>
       </c>
       <c r="D5">
-        <v>0.02544381431743403</v>
+        <v>0.03976059106090446</v>
       </c>
       <c r="E5">
-        <v>0.09972228918227444</v>
+        <v>0.03863550449298536</v>
       </c>
       <c r="F5">
-        <v>0.7421613517768151</v>
+        <v>0.454239842798934</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1995319262777286</v>
+        <v>0.2514968424037107</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.581207977441608</v>
+        <v>1.353739008975452</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.162256382369662</v>
+        <v>2.601841711303564</v>
       </c>
       <c r="C6">
-        <v>0.2429165551417043</v>
+        <v>0.4142166752648961</v>
       </c>
       <c r="D6">
-        <v>0.02538324349059451</v>
+        <v>0.03958508294110175</v>
       </c>
       <c r="E6">
-        <v>0.09978062655592979</v>
+        <v>0.03868110776382494</v>
       </c>
       <c r="F6">
-        <v>0.7422567732847014</v>
+        <v>0.4529633109030584</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1991154080681099</v>
+        <v>0.2498508427023154</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.582204919958031</v>
+        <v>1.351669259898557</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.202173071766197</v>
+        <v>2.732403815391308</v>
       </c>
       <c r="C7">
-        <v>0.2472841375883092</v>
+        <v>0.4270706955183243</v>
       </c>
       <c r="D7">
-        <v>0.02580347899241531</v>
+        <v>0.04080350950520995</v>
       </c>
       <c r="E7">
-        <v>0.09938126511149292</v>
+        <v>0.03837403682871354</v>
       </c>
       <c r="F7">
-        <v>0.7416526992634473</v>
+        <v>0.4619505090670017</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.202015419060416</v>
+        <v>0.2612964918964735</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.57548541274511</v>
+        <v>1.366464633779572</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.378374569436744</v>
+        <v>3.310000075663481</v>
       </c>
       <c r="C8">
-        <v>0.2665040599692077</v>
+        <v>0.4838857533286216</v>
       </c>
       <c r="D8">
-        <v>0.02765293741340002</v>
+        <v>0.04618783775555357</v>
       </c>
       <c r="E8">
-        <v>0.09775670556897786</v>
+        <v>0.03726084106528127</v>
       </c>
       <c r="F8">
-        <v>0.7404313483539582</v>
+        <v>0.5049186548521902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2150328553357923</v>
+        <v>0.3123657945379961</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.550801499978348</v>
+        <v>1.44292601550103</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.724012180241402</v>
+        <v>4.451623634090822</v>
       </c>
       <c r="C9">
-        <v>0.3039854258961441</v>
+        <v>0.5959134569239382</v>
       </c>
       <c r="D9">
-        <v>0.03126030033720184</v>
+        <v>0.05680164221272577</v>
       </c>
       <c r="E9">
-        <v>0.09506657982688083</v>
+        <v>0.03602527784483378</v>
       </c>
       <c r="F9">
-        <v>0.7432548820246581</v>
+        <v>0.6028844618773519</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2413496595601003</v>
+        <v>0.4150782516098701</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.520347592924026</v>
+        <v>1.638767711956604</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.977961545731205</v>
+        <v>5.299810463813742</v>
       </c>
       <c r="C10">
-        <v>0.3313838256891302</v>
+        <v>0.6788985258143896</v>
       </c>
       <c r="D10">
-        <v>0.03389769180461144</v>
+        <v>0.06466362970454753</v>
       </c>
       <c r="E10">
-        <v>0.09339282582802255</v>
+        <v>0.03577453203608805</v>
       </c>
       <c r="F10">
-        <v>0.748538571820859</v>
+        <v>0.6850732750371975</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2611670464070528</v>
+        <v>0.492674942855075</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.509009849006873</v>
+        <v>1.816531400697187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.09348190978568</v>
+        <v>5.688696895780311</v>
       </c>
       <c r="C11">
-        <v>0.3438155814336028</v>
+        <v>0.716873439879862</v>
       </c>
       <c r="D11">
-        <v>0.03509449064628711</v>
+        <v>0.06826180863696862</v>
       </c>
       <c r="E11">
-        <v>0.09269723182207201</v>
+        <v>0.03582225326487531</v>
       </c>
       <c r="F11">
-        <v>0.7516451862771305</v>
+        <v>0.7251308949615662</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2702876302099781</v>
+        <v>0.5285778040561979</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.506268740626155</v>
+        <v>1.906187581069105</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.137224739684314</v>
+        <v>5.836483270028111</v>
       </c>
       <c r="C12">
-        <v>0.348518330973377</v>
+        <v>0.7312926469806769</v>
       </c>
       <c r="D12">
-        <v>0.03554723832883866</v>
+        <v>0.0696281674092134</v>
       </c>
       <c r="E12">
-        <v>0.09244330170099069</v>
+        <v>0.03586532975680257</v>
       </c>
       <c r="F12">
-        <v>0.7529231317853515</v>
+        <v>0.7407245408287508</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2737565190597593</v>
+        <v>0.5422726446232105</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.5055798245331</v>
+        <v>1.941532808000119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.127804067047634</v>
+        <v>5.8046300921485</v>
       </c>
       <c r="C13">
-        <v>0.3475057317340315</v>
+        <v>0.7281853688681963</v>
       </c>
       <c r="D13">
-        <v>0.03544975164790998</v>
+        <v>0.06933371666364252</v>
       </c>
       <c r="E13">
-        <v>0.09249756842254797</v>
+        <v>0.03585491109821604</v>
       </c>
       <c r="F13">
-        <v>0.7526433804024322</v>
+        <v>0.7373465942457642</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.273008760134303</v>
+        <v>0.5393185945347767</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.505712644077278</v>
+        <v>1.933856369419516</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.097080713932939</v>
+        <v>5.7008443567737</v>
       </c>
       <c r="C14">
-        <v>0.3442025790894832</v>
+        <v>0.7180588962400805</v>
       </c>
       <c r="D14">
-        <v>0.0351317477288049</v>
+        <v>0.06837413934105285</v>
       </c>
       <c r="E14">
-        <v>0.09267615084272052</v>
+        <v>0.0358252855703487</v>
       </c>
       <c r="F14">
-        <v>0.7517482861240268</v>
+        <v>0.7264050357970859</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2705727150445796</v>
+        <v>0.5297024237609094</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.506205057842948</v>
+        <v>1.909066722084361</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.078261428251494</v>
+        <v>5.63734346226596</v>
       </c>
       <c r="C15">
-        <v>0.3421786575941042</v>
+        <v>0.7118614169728801</v>
       </c>
       <c r="D15">
-        <v>0.03493690119277915</v>
+        <v>0.06778688772721608</v>
       </c>
       <c r="E15">
-        <v>0.09278677221841392</v>
+        <v>0.03581044960688118</v>
       </c>
       <c r="F15">
-        <v>0.7512132513722634</v>
+        <v>0.7197595940679946</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2690825347070245</v>
+        <v>0.5238255472159494</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.506552183530147</v>
+        <v>1.894067995954231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.970411808117717</v>
+        <v>5.274464218721675</v>
       </c>
       <c r="C16">
-        <v>0.3305707135021123</v>
+        <v>0.6764218483524758</v>
       </c>
       <c r="D16">
-        <v>0.03381941615430861</v>
+        <v>0.06442897412599535</v>
       </c>
       <c r="E16">
-        <v>0.0934396098567909</v>
+        <v>0.03577481454563625</v>
       </c>
       <c r="F16">
-        <v>0.74834973200565</v>
+        <v>0.6825125443529885</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2605731139490075</v>
+        <v>0.4903417900408158</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.50923774917436</v>
+        <v>1.810859933636806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.904247587643169</v>
+        <v>5.052687553823262</v>
       </c>
       <c r="C17">
-        <v>0.3234412288701378</v>
+        <v>0.6547428720609503</v>
       </c>
       <c r="D17">
-        <v>0.03313309620898508</v>
+        <v>0.06237503034408576</v>
       </c>
       <c r="E17">
-        <v>0.09385696850501368</v>
+        <v>0.03579558633662749</v>
       </c>
       <c r="F17">
-        <v>0.7467734355434317</v>
+        <v>0.6603743904931747</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.255379854243742</v>
+        <v>0.4699637047708762</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.511505312961702</v>
+        <v>1.762155221314941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.866191555075602</v>
+        <v>4.925408214633933</v>
       </c>
       <c r="C18">
-        <v>0.3193375514979948</v>
+        <v>0.6422944046420582</v>
       </c>
       <c r="D18">
-        <v>0.03273806580278915</v>
+        <v>0.06119565579072628</v>
       </c>
       <c r="E18">
-        <v>0.09410321523863097</v>
+        <v>0.03582264971721116</v>
       </c>
       <c r="F18">
-        <v>0.7459329384070799</v>
+        <v>0.6478897382791189</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2524027673108407</v>
+        <v>0.4582987930137108</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.513036911941725</v>
+        <v>1.734960538378232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.853306472577458</v>
+        <v>4.882359333888473</v>
       </c>
       <c r="C19">
-        <v>0.3179476130713681</v>
+        <v>0.6380829316249503</v>
       </c>
       <c r="D19">
-        <v>0.03260426851982601</v>
+        <v>0.06079666358625957</v>
       </c>
       <c r="E19">
-        <v>0.0941876534057382</v>
+        <v>0.03583435830513082</v>
       </c>
       <c r="F19">
-        <v>0.7456597078140561</v>
+        <v>0.643704163284454</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2513964855611164</v>
+        <v>0.4543585161815145</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.5135944850675</v>
+        <v>1.725889755402704</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.911290908205331</v>
+        <v>5.076266404334376</v>
       </c>
       <c r="C20">
-        <v>0.3242004859288556</v>
+        <v>0.6570484469659732</v>
       </c>
       <c r="D20">
-        <v>0.03320618504464079</v>
+        <v>0.06259346449235181</v>
       </c>
       <c r="E20">
-        <v>0.09381189890589958</v>
+        <v>0.03579179852905767</v>
       </c>
       <c r="F20">
-        <v>0.7469343858267479</v>
+        <v>0.6627050178927192</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2559316574051422</v>
+        <v>0.4721271021153797</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.511240384834366</v>
+        <v>1.767254251279923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.10610498263992</v>
+        <v>5.731313810113932</v>
       </c>
       <c r="C21">
-        <v>0.3451729300581121</v>
+        <v>0.7210321741345922</v>
       </c>
       <c r="D21">
-        <v>0.03522516573176659</v>
+        <v>0.06865588135590173</v>
       </c>
       <c r="E21">
-        <v>0.09262343956701713</v>
+        <v>0.0358332940866255</v>
       </c>
       <c r="F21">
-        <v>0.7520084377834593</v>
+        <v>0.7296069679466513</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2712878305882498</v>
+        <v>0.5325241296603735</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.506050937310818</v>
+        <v>1.916309104744727</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.233413424288301</v>
+        <v>6.16252231532701</v>
       </c>
       <c r="C22">
-        <v>0.3588510172441488</v>
+        <v>0.7630796999953304</v>
       </c>
       <c r="D22">
-        <v>0.03654202706866272</v>
+        <v>0.07264057797313939</v>
       </c>
       <c r="E22">
-        <v>0.09190195369455267</v>
+        <v>0.03600707751689924</v>
       </c>
       <c r="F22">
-        <v>0.7559166693299488</v>
+        <v>0.7758282337592703</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.281412092657348</v>
+        <v>0.5725818778887941</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.504694788128177</v>
+        <v>2.021921402771653</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.165468388404463</v>
+        <v>5.93206432400973</v>
       </c>
       <c r="C23">
-        <v>0.3515534802882314</v>
+        <v>0.7406146981487325</v>
       </c>
       <c r="D23">
-        <v>0.03583944580751108</v>
+        <v>0.07051156182770058</v>
       </c>
       <c r="E23">
-        <v>0.09228196525756438</v>
+        <v>0.03590029343042112</v>
       </c>
       <c r="F23">
-        <v>0.7537764548151955</v>
+        <v>0.7509161825290818</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2760005394590337</v>
+        <v>0.5511444127563294</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.50523182063381</v>
+        <v>1.96475810121575</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.908106676857642</v>
+        <v>5.065605717774986</v>
       </c>
       <c r="C24">
-        <v>0.3238572408721723</v>
+        <v>0.6560060501216469</v>
       </c>
       <c r="D24">
-        <v>0.0331731429993809</v>
+        <v>0.06249470590112338</v>
       </c>
       <c r="E24">
-        <v>0.09383225524341832</v>
+        <v>0.03579346402700878</v>
       </c>
       <c r="F24">
-        <v>0.7468614154691267</v>
+        <v>0.6616505878118915</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2556821604460282</v>
+        <v>0.4711488731150837</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.511359448910014</v>
+        <v>1.76494647808758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630502460954688</v>
+        <v>4.141434515710387</v>
       </c>
       <c r="C25">
-        <v>0.293869323278642</v>
+        <v>0.5655115524909888</v>
       </c>
       <c r="D25">
-        <v>0.03028660745813028</v>
+        <v>0.05392146552881627</v>
       </c>
       <c r="E25">
-        <v>0.09574121442095063</v>
+        <v>0.03625024326308512</v>
       </c>
       <c r="F25">
-        <v>0.7419294698460135</v>
+        <v>0.5747314318317578</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2341456260844836</v>
+        <v>0.3869609925294668</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.526654732982166</v>
+        <v>1.580291686511572</v>
       </c>
     </row>
   </sheetData>
